--- a/client/public/sample_leads.xlsx
+++ b/client/public/sample_leads.xlsx
@@ -16,9 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Lead Number</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -32,13 +29,16 @@
   </si>
   <si>
     <t>Actual Date</t>
+  </si>
+  <si>
+    <t>Email Id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -50,6 +50,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -75,10 +83,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,11 +427,12 @@
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
     <col min="6" max="7" width="10.125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="10.125" bestFit="1" customWidth="1"/>
     <col min="21" max="24" width="10.125" bestFit="1" customWidth="1"/>
@@ -441,11 +451,11 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">

--- a/client/public/sample_leads.xlsx
+++ b/client/public/sample_leads.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HITS\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565EA6E3-0210-4CAA-ACC2-150A597132FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="615" windowWidth="27495" windowHeight="13230"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -32,13 +38,22 @@
   </si>
   <si>
     <t>Email Id</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -62,6 +77,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -80,16 +103,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -97,6 +123,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -423,16 +452,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10.125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="10.125" bestFit="1" customWidth="1"/>
     <col min="21" max="24" width="10.125" bestFit="1" customWidth="1"/>
@@ -459,6 +489,24 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>3456789023</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45782</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
@@ -470,7 +518,10 @@
       <c r="I8" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{0F53A287-9D60-44C3-B939-DF80BD9B9167}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>